--- a/Sprint#5/pruebas individuales Oscar/Log pruebas individuales RF-23.xlsx
+++ b/Sprint#5/pruebas individuales Oscar/Log pruebas individuales RF-23.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Observación</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>La verificación es brindada únicamente por un usuario autorizado de la administración</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A708F16F-7A7C-43B3-96D9-7956B2A00F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A708F16F-7A7C-43B3-96D9-7956B2A00F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -422,6 +425,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>569619</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15047619" cy="7780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -445,7 +486,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B5A9F6-0714-411B-A079-BBA359F1F23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77B5A9F6-0714-411B-A079-BBA359F1F23B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +832,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,6 +991,9 @@
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
       <c r="C15" s="6"/>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
